--- a/Etapa 2/Levantamentos de requesitos.xlsx
+++ b/Etapa 2/Levantamentos de requesitos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaellseara/Documents/Cesium/CAOS/BD/Etapa 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{588EF555-A071-9242-A820-1EA290327B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E0FEFF-BD99-3B41-9EDF-6BF45CE69BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="24020" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>DATA</t>
   </si>
@@ -72,27 +72,6 @@
     <t>Apenas o admin pode destacar detetives</t>
   </si>
   <si>
-    <t>O cliente e o sujeito principal é apenas 1</t>
-  </si>
-  <si>
-    <t>A cada momento, deve ser possível obter a listagem de todos os casos</t>
-  </si>
-  <si>
-    <t>A cada momento, deve ser possível obter a lista de detetives</t>
-  </si>
-  <si>
-    <t>A cada momento, deve ser possível obter a listagem de todos os detetives de um determinado caso</t>
-  </si>
-  <si>
-    <t>A cada momento, deve ser possível obter a listagem de todas as vitimas de um determinado caso</t>
-  </si>
-  <si>
-    <t>A cada momento, deve ser possível obter a listagem de detetives destacados</t>
-  </si>
-  <si>
-    <t>A cada momento, deve ser possível obter a listagem de detetives não destacados</t>
-  </si>
-  <si>
     <t>Detetive</t>
   </si>
   <si>
@@ -112,6 +91,51 @@
   </si>
   <si>
     <t>•	Analisar os documentos e plataformas usadas para gerir esta agência</t>
+  </si>
+  <si>
+    <t>Detetive / Admin</t>
+  </si>
+  <si>
+    <t>O cliente e o sujeito principal é apenas 1 em cada caso</t>
+  </si>
+  <si>
+    <t>Controlo</t>
+  </si>
+  <si>
+    <t>Exploração</t>
+  </si>
+  <si>
+    <t>O detetive deve poder criar 1 ou mais casos na sua conta</t>
+  </si>
+  <si>
+    <t>Deve ser possível obter a listagem de todos os casos</t>
+  </si>
+  <si>
+    <t>Deve ser possível obter a lista de detetives</t>
+  </si>
+  <si>
+    <t>Deve ser possível obter a listagem de todos os detetives de um determinado caso</t>
+  </si>
+  <si>
+    <t>Deve ser possível obter a listagem de todas as vitimas de um determinado caso</t>
+  </si>
+  <si>
+    <t>Deve ser possível obter a listagem de detetives destacados</t>
+  </si>
+  <si>
+    <t>Deve ser possível obter a listagem de detetives não destacados</t>
+  </si>
+  <si>
+    <t>Deve ser possível obter a lista de casos abertos</t>
+  </si>
+  <si>
+    <t>Casos fechados não podem ser editados</t>
+  </si>
+  <si>
+    <t>Deve ser possivel obter a listagem de todos os casos de um sujeito</t>
+  </si>
+  <si>
+    <t>Deve ser possivel obter a listagem de todos os casos de uma vitima</t>
   </si>
 </sst>
 </file>
@@ -121,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <b/>
       <sz val="10"/>
@@ -199,6 +223,37 @@
       <sz val="20"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="Arial (corpo)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFF198A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -215,12 +270,23 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -231,7 +297,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -280,6 +346,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Cabeçalho 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -290,12 +368,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -304,6 +376,12 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -356,14 +434,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tarefas" displayName="Tarefas" ref="B6:F22" totalsRowShown="0">
-  <autoFilter ref="B6:F22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tarefas" displayName="Tarefas" ref="B6:F27" totalsRowShown="0">
+  <autoFilter ref="B6:F27" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ID" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{64773D13-631D-0949-B5A3-6037265E3A68}" name="REQUISITO" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{3E4138AB-BE85-5A49-9809-7C451A5D47B7}" name="VISTA" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DESCRIÇÃO" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ID" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{64773D13-631D-0949-B5A3-6037265E3A68}" name="REQUISITO" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{3E4138AB-BE85-5A49-9809-7C451A5D47B7}" name="VISTA" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DESCRIÇÃO" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Tarefas" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -641,17 +719,17 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="109" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="18" style="12" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="6" customWidth="1"/>
     <col min="4" max="5" width="23.1640625" customWidth="1"/>
     <col min="6" max="6" width="113" style="10" customWidth="1"/>
     <col min="7" max="7" width="2.5" customWidth="1"/>
@@ -676,7 +754,7 @@
     <row r="4" spans="1:10" ht="5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="7"/>
@@ -686,14 +764,14 @@
       <c r="B5"/>
       <c r="F5" s="6"/>
       <c r="J5" s="19" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -710,63 +788,75 @@
       <c r="B7" s="11">
         <v>45356</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="9">
         <v>1</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="11">
         <v>45356</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="9">
         <v>2</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="11">
         <v>45356</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="9">
         <v>3</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="F9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="11">
         <v>45356</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="9">
         <v>4</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="F10" s="9" t="s">
         <v>9</v>
       </c>
@@ -775,11 +865,15 @@
       <c r="B11" s="11">
         <v>45356</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="9">
         <v>5</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="9" t="s">
         <v>10</v>
       </c>
@@ -788,12 +882,14 @@
       <c r="B12" s="11">
         <v>45356</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="9">
         <v>6</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="E12" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>11</v>
@@ -803,11 +899,15 @@
       <c r="B13" s="11">
         <v>45356</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="9">
         <v>7</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="F13" s="9" t="s">
         <v>12</v>
       </c>
@@ -816,112 +916,229 @@
       <c r="B14" s="11">
         <v>45356</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="9">
         <v>8</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="F14" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11">
         <v>45356</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="9">
         <v>9</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="F15" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="11">
+        <v>45356</v>
+      </c>
+      <c r="C16" s="9">
+        <v>10</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="11">
+        <v>45356</v>
+      </c>
+      <c r="C17" s="9">
+        <v>11</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="11">
+        <v>45356</v>
+      </c>
+      <c r="C18" s="9">
+        <v>12</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="11">
+        <v>45356</v>
+      </c>
+      <c r="C19" s="9">
+        <v>13</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11">
+        <v>45356</v>
+      </c>
+      <c r="C20" s="9">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="11">
-        <v>45356</v>
-      </c>
-      <c r="C16" s="5">
-        <v>10</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="9" t="s">
+      <c r="D20" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
+        <v>45356</v>
+      </c>
+      <c r="C21" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="11">
-        <v>45356</v>
-      </c>
-      <c r="C17" s="5">
-        <v>11</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="9" t="s">
+      <c r="D21" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="11">
+        <v>45358</v>
+      </c>
+      <c r="C22" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="11">
-        <v>45356</v>
-      </c>
-      <c r="C18" s="5">
-        <v>12</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="9" t="s">
+      <c r="D22" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="11">
+        <v>45358</v>
+      </c>
+      <c r="C23" s="9">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="11">
-        <v>45356</v>
-      </c>
-      <c r="C19" s="5">
-        <v>13</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="9" t="s">
+      <c r="D23" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="11">
+        <v>45358</v>
+      </c>
+      <c r="C24" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="11">
-        <v>45356</v>
-      </c>
-      <c r="C20" s="5">
-        <v>14</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="9" t="s">
+      <c r="D24" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="11">
+        <v>45358</v>
+      </c>
+      <c r="C25" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="11">
-        <v>45356</v>
-      </c>
-      <c r="C21" s="5">
-        <v>15</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="9" t="s">
+      <c r="D25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="11">
+        <v>45358</v>
+      </c>
+      <c r="C26" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="14"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="9"/>
+      <c r="D26" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="14"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="9"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
